--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Efna2-Epha2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Efna2-Epha2.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.186026</v>
+        <v>1.573649333333333</v>
       </c>
       <c r="H2">
-        <v>3.558078</v>
+        <v>4.720948</v>
       </c>
       <c r="I2">
-        <v>0.1428187553521992</v>
+        <v>0.162950296453897</v>
       </c>
       <c r="J2">
-        <v>0.1524379446999992</v>
+        <v>0.1728167686459121</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.60495066666667</v>
+        <v>12.997753</v>
       </c>
       <c r="N2">
-        <v>49.814852</v>
+        <v>38.993259</v>
       </c>
       <c r="O2">
-        <v>0.4330603147186406</v>
+        <v>0.4740421406233454</v>
       </c>
       <c r="P2">
-        <v>0.5197056776409935</v>
+        <v>0.5546503645614554</v>
       </c>
       <c r="Q2">
-        <v>19.693903219384</v>
+        <v>20.45390534328133</v>
       </c>
       <c r="R2">
-        <v>177.245128974456</v>
+        <v>184.085148089532</v>
       </c>
       <c r="S2">
-        <v>0.06184913514054791</v>
+        <v>0.07724530734621408</v>
       </c>
       <c r="T2">
-        <v>0.07922286534851339</v>
+        <v>0.09585288373178782</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.186026</v>
+        <v>1.573649333333333</v>
       </c>
       <c r="H3">
-        <v>3.558078</v>
+        <v>4.720948</v>
       </c>
       <c r="I3">
-        <v>0.1428187553521992</v>
+        <v>0.162950296453897</v>
       </c>
       <c r="J3">
-        <v>0.1524379446999992</v>
+        <v>0.1728167686459121</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>2.241754</v>
       </c>
       <c r="O3">
-        <v>0.01948845883877707</v>
+        <v>0.02725306609819269</v>
       </c>
       <c r="P3">
-        <v>0.02338764916283215</v>
+        <v>0.03188729809316786</v>
       </c>
       <c r="Q3">
-        <v>0.886259509868</v>
+        <v>1.175911562532444</v>
       </c>
       <c r="R3">
-        <v>7.976335588812</v>
+        <v>10.583204062792</v>
       </c>
       <c r="S3">
-        <v>0.002783317435086705</v>
+        <v>0.004440895199978149</v>
       </c>
       <c r="T3">
-        <v>0.00356516516974679</v>
+        <v>0.005510659817310223</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.186026</v>
+        <v>1.573649333333333</v>
       </c>
       <c r="H4">
-        <v>3.558078</v>
+        <v>4.720948</v>
       </c>
       <c r="I4">
-        <v>0.1428187553521992</v>
+        <v>0.162950296453897</v>
       </c>
       <c r="J4">
-        <v>0.1524379446999992</v>
+        <v>0.1728167686459121</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.5008306666666666</v>
+        <v>1.182591666666666</v>
       </c>
       <c r="N4">
-        <v>1.502492</v>
+        <v>3.547775</v>
       </c>
       <c r="O4">
-        <v>0.01306176034372721</v>
+        <v>0.04313039993528083</v>
       </c>
       <c r="P4">
-        <v>0.01567511679067463</v>
+        <v>0.05046448405689858</v>
       </c>
       <c r="Q4">
-        <v>0.593998192264</v>
+        <v>1.860984587855555</v>
       </c>
       <c r="R4">
-        <v>5.345983730376</v>
+        <v>16.7488612907</v>
       </c>
       <c r="S4">
-        <v>0.001865464354999832</v>
+        <v>0.007028111455629153</v>
       </c>
       <c r="T4">
-        <v>0.002389482586502888</v>
+        <v>0.008721109066096359</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1.186026</v>
+        <v>1.573649333333333</v>
       </c>
       <c r="H5">
-        <v>3.558078</v>
+        <v>4.720948</v>
       </c>
       <c r="I5">
-        <v>0.1428187553521992</v>
+        <v>0.162950296453897</v>
       </c>
       <c r="J5">
-        <v>0.1524379446999992</v>
+        <v>0.1728167686459121</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.1777795</v>
+        <v>11.9545335</v>
       </c>
       <c r="N5">
-        <v>38.355559</v>
+        <v>23.909067</v>
       </c>
       <c r="O5">
-        <v>0.5001601867174891</v>
+        <v>0.4359947946767024</v>
       </c>
       <c r="P5">
-        <v>0.4001537891027781</v>
+        <v>0.3400888529957002</v>
       </c>
       <c r="Q5">
-        <v>22.745345109267</v>
+        <v>18.812243672586</v>
       </c>
       <c r="R5">
-        <v>136.472070655602</v>
+        <v>112.873462035516</v>
       </c>
       <c r="S5">
-        <v>0.07143225534371532</v>
+        <v>0.07104548104492463</v>
       </c>
       <c r="T5">
-        <v>0.06099862117474444</v>
+        <v>0.05877305662721152</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>1.186026</v>
+        <v>1.573649333333333</v>
       </c>
       <c r="H6">
-        <v>3.558078</v>
+        <v>4.720948</v>
       </c>
       <c r="I6">
-        <v>0.1428187553521992</v>
+        <v>0.162950296453897</v>
       </c>
       <c r="J6">
-        <v>0.1524379446999992</v>
+        <v>0.1728167686459121</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.312462666666667</v>
+        <v>0.5368526666666666</v>
       </c>
       <c r="N6">
-        <v>3.937388</v>
+        <v>1.610558</v>
       </c>
       <c r="O6">
-        <v>0.034229279381366</v>
+        <v>0.01957959866647858</v>
       </c>
       <c r="P6">
-        <v>0.04107776730272161</v>
+        <v>0.022909000292778</v>
       </c>
       <c r="Q6">
-        <v>1.556614846696</v>
+        <v>0.8448178409982221</v>
       </c>
       <c r="R6">
-        <v>14.009533620264</v>
+        <v>7.603360568984</v>
       </c>
       <c r="S6">
-        <v>0.004888583077849386</v>
+        <v>0.003190501407151011</v>
       </c>
       <c r="T6">
-        <v>0.006261810420491712</v>
+        <v>0.003959059403506148</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>13.179146</v>
       </c>
       <c r="I7">
-        <v>0.5290016768392695</v>
+        <v>0.4548971409363525</v>
       </c>
       <c r="J7">
-        <v>0.5646312220084034</v>
+        <v>0.4824406931050072</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>16.60495066666667</v>
+        <v>12.997753</v>
       </c>
       <c r="N7">
-        <v>49.814852</v>
+        <v>38.993259</v>
       </c>
       <c r="O7">
-        <v>0.4330603147186406</v>
+        <v>0.4740421406233454</v>
       </c>
       <c r="P7">
-        <v>0.5197056776409935</v>
+        <v>0.5546503645614554</v>
       </c>
       <c r="Q7">
-        <v>72.94635638626579</v>
+        <v>57.09976148631268</v>
       </c>
       <c r="R7">
-        <v>656.5172074763921</v>
+        <v>513.8978533768141</v>
       </c>
       <c r="S7">
-        <v>0.2290896326587027</v>
+        <v>0.2156404144529082</v>
       </c>
       <c r="T7">
-        <v>0.2934420518511395</v>
+        <v>0.2675859063099735</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>13.179146</v>
       </c>
       <c r="I8">
-        <v>0.5290016768392695</v>
+        <v>0.4548971409363525</v>
       </c>
       <c r="J8">
-        <v>0.5646312220084034</v>
+        <v>0.4824406931050072</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>2.241754</v>
       </c>
       <c r="O8">
-        <v>0.01948845883877707</v>
+        <v>0.02725306609819269</v>
       </c>
       <c r="P8">
-        <v>0.02338764916283215</v>
+        <v>0.03188729809316786</v>
       </c>
       <c r="Q8">
         <v>3.282711473564889</v>
@@ -948,10 +948,10 @@
         <v>29.544403262084</v>
       </c>
       <c r="S8">
-        <v>0.01030942740472615</v>
+        <v>0.01239734184981729</v>
       </c>
       <c r="T8">
-        <v>0.01320539692671373</v>
+        <v>0.01538373019331388</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>13.179146</v>
       </c>
       <c r="I9">
-        <v>0.5290016768392695</v>
+        <v>0.4548971409363525</v>
       </c>
       <c r="J9">
-        <v>0.5646312220084034</v>
+        <v>0.4824406931050072</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.5008306666666666</v>
+        <v>1.182591666666666</v>
       </c>
       <c r="N9">
-        <v>1.502492</v>
+        <v>3.547775</v>
       </c>
       <c r="O9">
-        <v>0.01306176034372721</v>
+        <v>0.04313039993528083</v>
       </c>
       <c r="P9">
-        <v>0.01567511679067463</v>
+        <v>0.05046448405689858</v>
       </c>
       <c r="Q9">
-        <v>2.200173492425778</v>
+        <v>5.195182744461111</v>
       </c>
       <c r="R9">
-        <v>19.801561431832</v>
+        <v>46.75664470015</v>
       </c>
       <c r="S9">
-        <v>0.006909693124304364</v>
+        <v>0.01961989561800069</v>
       </c>
       <c r="T9">
-        <v>0.008850660348643057</v>
+        <v>0.02434612066559674</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>13.179146</v>
       </c>
       <c r="I10">
-        <v>0.5290016768392695</v>
+        <v>0.4548971409363525</v>
       </c>
       <c r="J10">
-        <v>0.5646312220084034</v>
+        <v>0.4824406931050072</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>19.1777795</v>
+        <v>11.9545335</v>
       </c>
       <c r="N10">
-        <v>38.355559</v>
+        <v>23.909067</v>
       </c>
       <c r="O10">
-        <v>0.5001601867174891</v>
+        <v>0.4359947946767024</v>
       </c>
       <c r="P10">
-        <v>0.4001537891027781</v>
+        <v>0.3400888529957002</v>
       </c>
       <c r="Q10">
-        <v>84.24891866210234</v>
+        <v>52.516847452797</v>
       </c>
       <c r="R10">
-        <v>505.493511972614</v>
+        <v>315.1010847167821</v>
       </c>
       <c r="S10">
-        <v>0.2645855774617938</v>
+        <v>0.198332785561564</v>
       </c>
       <c r="T10">
-        <v>0.2259393229323945</v>
+        <v>0.1640727019565325</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>13.179146</v>
       </c>
       <c r="I11">
-        <v>0.5290016768392695</v>
+        <v>0.4548971409363525</v>
       </c>
       <c r="J11">
-        <v>0.5646312220084034</v>
+        <v>0.4824406931050072</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.312462666666667</v>
+        <v>0.5368526666666666</v>
       </c>
       <c r="N11">
-        <v>3.937388</v>
+        <v>1.610558</v>
       </c>
       <c r="O11">
-        <v>0.034229279381366</v>
+        <v>0.01957959866647858</v>
       </c>
       <c r="P11">
-        <v>0.04107776730272161</v>
+        <v>0.022909000292778</v>
       </c>
       <c r="Q11">
-        <v>5.765712367849778</v>
+        <v>2.358419891496445</v>
       </c>
       <c r="R11">
-        <v>51.891411310648</v>
+        <v>21.225779023468</v>
       </c>
       <c r="S11">
-        <v>0.01810734618974245</v>
+        <v>0.008906703454062326</v>
       </c>
       <c r="T11">
-        <v>0.02319378994951254</v>
+        <v>0.01105223397959063</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.785643</v>
+        <v>1.149467</v>
       </c>
       <c r="H12">
-        <v>2.356929</v>
+        <v>3.448401</v>
       </c>
       <c r="I12">
-        <v>0.09460547695511548</v>
+        <v>0.11902651019285</v>
       </c>
       <c r="J12">
-        <v>0.1009773851399054</v>
+        <v>0.1262334424813261</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>16.60495066666667</v>
+        <v>12.997753</v>
       </c>
       <c r="N12">
-        <v>49.814852</v>
+        <v>38.993259</v>
       </c>
       <c r="O12">
-        <v>0.4330603147186406</v>
+        <v>0.4740421406233454</v>
       </c>
       <c r="P12">
-        <v>0.5197056776409935</v>
+        <v>0.5546503645614554</v>
       </c>
       <c r="Q12">
-        <v>13.045563256612</v>
+        <v>14.940488147651</v>
       </c>
       <c r="R12">
-        <v>117.410069309508</v>
+        <v>134.464393328859</v>
       </c>
       <c r="S12">
-        <v>0.04096987762428941</v>
+        <v>0.05642358168274506</v>
       </c>
       <c r="T12">
-        <v>0.05247852037055015</v>
+        <v>0.07001542489211507</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.785643</v>
+        <v>1.149467</v>
       </c>
       <c r="H13">
-        <v>2.356929</v>
+        <v>3.448401</v>
       </c>
       <c r="I13">
-        <v>0.09460547695511548</v>
+        <v>0.11902651019285</v>
       </c>
       <c r="J13">
-        <v>0.1009773851399054</v>
+        <v>0.1262334424813261</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>2.241754</v>
       </c>
       <c r="O13">
-        <v>0.01948845883877707</v>
+        <v>0.02725306609819269</v>
       </c>
       <c r="P13">
-        <v>0.02338764916283215</v>
+        <v>0.03188729809316786</v>
       </c>
       <c r="Q13">
-        <v>0.5870727792739999</v>
+        <v>0.8589407483726664</v>
       </c>
       <c r="R13">
-        <v>5.283655013465999</v>
+        <v>7.730466735353999</v>
       </c>
       <c r="S13">
-        <v>0.001843714943562641</v>
+        <v>0.003243837349722947</v>
       </c>
       <c r="T13">
-        <v>0.002361623657032289</v>
+        <v>0.004025243409728807</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.785643</v>
+        <v>1.149467</v>
       </c>
       <c r="H14">
-        <v>2.356929</v>
+        <v>3.448401</v>
       </c>
       <c r="I14">
-        <v>0.09460547695511548</v>
+        <v>0.11902651019285</v>
       </c>
       <c r="J14">
-        <v>0.1009773851399054</v>
+        <v>0.1262334424813261</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.5008306666666666</v>
+        <v>1.182591666666666</v>
       </c>
       <c r="N14">
-        <v>1.502492</v>
+        <v>3.547775</v>
       </c>
       <c r="O14">
-        <v>0.01306176034372721</v>
+        <v>0.04313039993528083</v>
       </c>
       <c r="P14">
-        <v>0.01567511679067463</v>
+        <v>0.05046448405689858</v>
       </c>
       <c r="Q14">
-        <v>0.393474107452</v>
+        <v>1.359350095308333</v>
       </c>
       <c r="R14">
-        <v>3.541266967068</v>
+        <v>12.234150857775</v>
       </c>
       <c r="S14">
-        <v>0.001235714067191725</v>
+        <v>0.005133660987518401</v>
       </c>
       <c r="T14">
-        <v>0.00158283230528495</v>
+        <v>0.006370305545546307</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.785643</v>
+        <v>1.149467</v>
       </c>
       <c r="H15">
-        <v>2.356929</v>
+        <v>3.448401</v>
       </c>
       <c r="I15">
-        <v>0.09460547695511548</v>
+        <v>0.11902651019285</v>
       </c>
       <c r="J15">
-        <v>0.1009773851399054</v>
+        <v>0.1262334424813261</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>19.1777795</v>
+        <v>11.9545335</v>
       </c>
       <c r="N15">
-        <v>38.355559</v>
+        <v>23.909067</v>
       </c>
       <c r="O15">
-        <v>0.5001601867174891</v>
+        <v>0.4359947946767024</v>
       </c>
       <c r="P15">
-        <v>0.4001537891027781</v>
+        <v>0.3400888529957002</v>
       </c>
       <c r="Q15">
-        <v>15.0668882197185</v>
+        <v>13.7413417586445</v>
       </c>
       <c r="R15">
-        <v>90.401329318311</v>
+        <v>82.448050551867</v>
       </c>
       <c r="S15">
-        <v>0.04731789301836767</v>
+        <v>0.05189493887261607</v>
       </c>
       <c r="T15">
-        <v>0.04040648327742372</v>
+        <v>0.04293058666317291</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.785643</v>
+        <v>1.149467</v>
       </c>
       <c r="H16">
-        <v>2.356929</v>
+        <v>3.448401</v>
       </c>
       <c r="I16">
-        <v>0.09460547695511548</v>
+        <v>0.11902651019285</v>
       </c>
       <c r="J16">
-        <v>0.1009773851399054</v>
+        <v>0.1262334424813261</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.312462666666667</v>
+        <v>0.5368526666666666</v>
       </c>
       <c r="N16">
-        <v>3.937388</v>
+        <v>1.610558</v>
       </c>
       <c r="O16">
-        <v>0.034229279381366</v>
+        <v>0.01957959866647858</v>
       </c>
       <c r="P16">
-        <v>0.04107776730272161</v>
+        <v>0.022909000292778</v>
       </c>
       <c r="Q16">
-        <v>1.031127106828</v>
+        <v>0.6170944241953332</v>
       </c>
       <c r="R16">
-        <v>9.280143961452</v>
+        <v>5.553849817758</v>
       </c>
       <c r="S16">
-        <v>0.003238277301704031</v>
+        <v>0.002330491300247525</v>
       </c>
       <c r="T16">
-        <v>0.004147925529614334</v>
+        <v>0.002891881970763076</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.5720835</v>
+        <v>1.6540555</v>
       </c>
       <c r="H17">
-        <v>3.144167</v>
+        <v>3.308111</v>
       </c>
       <c r="I17">
-        <v>0.1893069871821773</v>
+        <v>0.1712762992154535</v>
       </c>
       <c r="J17">
-        <v>0.1347048477502636</v>
+        <v>0.1210979348516435</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>16.60495066666667</v>
+        <v>12.997753</v>
       </c>
       <c r="N17">
-        <v>49.814852</v>
+        <v>38.993259</v>
       </c>
       <c r="O17">
-        <v>0.4330603147186406</v>
+        <v>0.4740421406233454</v>
       </c>
       <c r="P17">
-        <v>0.5197056776409935</v>
+        <v>0.5546503645614554</v>
       </c>
       <c r="Q17">
-        <v>26.10436896138067</v>
+        <v>21.4990048372915</v>
       </c>
       <c r="R17">
-        <v>156.626213768284</v>
+        <v>128.994029023749</v>
       </c>
       <c r="S17">
-        <v>0.08198134344755137</v>
+        <v>0.08119218351813819</v>
       </c>
       <c r="T17">
-        <v>0.07000687418157761</v>
+        <v>0.06716701371310346</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.5720835</v>
+        <v>1.6540555</v>
       </c>
       <c r="H18">
-        <v>3.144167</v>
+        <v>3.308111</v>
       </c>
       <c r="I18">
-        <v>0.1893069871821773</v>
+        <v>0.1712762992154535</v>
       </c>
       <c r="J18">
-        <v>0.1347048477502636</v>
+        <v>0.1210979348516435</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>2.241754</v>
       </c>
       <c r="O18">
-        <v>0.01948845883877707</v>
+        <v>0.02725306609819269</v>
       </c>
       <c r="P18">
-        <v>0.02338764916283215</v>
+        <v>0.03188729809316786</v>
       </c>
       <c r="Q18">
-        <v>1.174741491486333</v>
+        <v>1.235995177782333</v>
       </c>
       <c r="R18">
-        <v>7.048448948918001</v>
+        <v>7.415971066694</v>
       </c>
       <c r="S18">
-        <v>0.00368930142759276</v>
+        <v>0.004667804303572582</v>
       </c>
       <c r="T18">
-        <v>0.003150429719715885</v>
+        <v>0.003861485947081379</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.5720835</v>
+        <v>1.6540555</v>
       </c>
       <c r="H19">
-        <v>3.144167</v>
+        <v>3.308111</v>
       </c>
       <c r="I19">
-        <v>0.1893069871821773</v>
+        <v>0.1712762992154535</v>
       </c>
       <c r="J19">
-        <v>0.1347048477502636</v>
+        <v>0.1210979348516435</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.5008306666666666</v>
+        <v>1.182591666666666</v>
       </c>
       <c r="N19">
-        <v>1.502492</v>
+        <v>3.547775</v>
       </c>
       <c r="O19">
-        <v>0.01306176034372721</v>
+        <v>0.04313039993528083</v>
       </c>
       <c r="P19">
-        <v>0.01567511679067463</v>
+        <v>0.05046448405689858</v>
       </c>
       <c r="Q19">
-        <v>0.7873476273606668</v>
+        <v>1.956072250504167</v>
       </c>
       <c r="R19">
-        <v>4.724085764164</v>
+        <v>11.736433503025</v>
       </c>
       <c r="S19">
-        <v>0.002472682497966637</v>
+        <v>0.007387215284597335</v>
       </c>
       <c r="T19">
-        <v>0.002111514220755426</v>
+        <v>0.006111144802644107</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.5720835</v>
+        <v>1.6540555</v>
       </c>
       <c r="H20">
-        <v>3.144167</v>
+        <v>3.308111</v>
       </c>
       <c r="I20">
-        <v>0.1893069871821773</v>
+        <v>0.1712762992154535</v>
       </c>
       <c r="J20">
-        <v>0.1347048477502636</v>
+        <v>0.1210979348516435</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>19.1777795</v>
+        <v>11.9545335</v>
       </c>
       <c r="N20">
-        <v>38.355559</v>
+        <v>23.909067</v>
       </c>
       <c r="O20">
-        <v>0.5001601867174891</v>
+        <v>0.4359947946767024</v>
       </c>
       <c r="P20">
-        <v>0.4001537891027781</v>
+        <v>0.3400888529957002</v>
       </c>
       <c r="Q20">
-        <v>30.14907071858825</v>
+        <v>19.77346188560925</v>
       </c>
       <c r="R20">
-        <v>120.596282874353</v>
+        <v>79.093847542437</v>
       </c>
       <c r="S20">
-        <v>0.0946838180559631</v>
+        <v>0.0746755749094271</v>
       </c>
       <c r="T20">
-        <v>0.05390265523778082</v>
+        <v>0.04118405776384347</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.5720835</v>
+        <v>1.6540555</v>
       </c>
       <c r="H21">
-        <v>3.144167</v>
+        <v>3.308111</v>
       </c>
       <c r="I21">
-        <v>0.1893069871821773</v>
+        <v>0.1712762992154535</v>
       </c>
       <c r="J21">
-        <v>0.1347048477502636</v>
+        <v>0.1210979348516435</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.312462666666667</v>
+        <v>0.5368526666666666</v>
       </c>
       <c r="N21">
-        <v>3.937388</v>
+        <v>1.610558</v>
       </c>
       <c r="O21">
-        <v>0.034229279381366</v>
+        <v>0.01957959866647858</v>
       </c>
       <c r="P21">
-        <v>0.04107776730272161</v>
+        <v>0.022909000292778</v>
       </c>
       <c r="Q21">
-        <v>2.063300902632667</v>
+        <v>0.8879841059896667</v>
       </c>
       <c r="R21">
-        <v>12.379805415796</v>
+        <v>5.327904635938</v>
       </c>
       <c r="S21">
-        <v>0.006479841753103419</v>
+        <v>0.003353521199718279</v>
       </c>
       <c r="T21">
-        <v>0.005533374390433871</v>
+        <v>0.002774232624971113</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.3676123333333334</v>
+        <v>0.8870146666666666</v>
       </c>
       <c r="H22">
-        <v>1.102837</v>
+        <v>2.661044</v>
       </c>
       <c r="I22">
-        <v>0.04426710367123859</v>
+        <v>0.09184975320144682</v>
       </c>
       <c r="J22">
-        <v>0.04724860040142825</v>
+        <v>0.097411160916111</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>16.60495066666667</v>
+        <v>12.997753</v>
       </c>
       <c r="N22">
-        <v>49.814852</v>
+        <v>38.993259</v>
       </c>
       <c r="O22">
-        <v>0.4330603147186406</v>
+        <v>0.4740421406233454</v>
       </c>
       <c r="P22">
-        <v>0.5197056776409935</v>
+        <v>0.5546503645614554</v>
       </c>
       <c r="Q22">
-        <v>6.104184659458223</v>
+        <v>11.52919754471067</v>
       </c>
       <c r="R22">
-        <v>54.93766193512401</v>
+        <v>103.762777902396</v>
       </c>
       <c r="S22">
-        <v>0.01917032584754928</v>
+        <v>0.04354065362333983</v>
       </c>
       <c r="T22">
-        <v>0.02455536588921279</v>
+        <v>0.05402913591447557</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.3676123333333334</v>
+        <v>0.8870146666666666</v>
       </c>
       <c r="H23">
-        <v>1.102837</v>
+        <v>2.661044</v>
       </c>
       <c r="I23">
-        <v>0.04426710367123859</v>
+        <v>0.09184975320144682</v>
       </c>
       <c r="J23">
-        <v>0.04724860040142825</v>
+        <v>0.097411160916111</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>2.241754</v>
       </c>
       <c r="O23">
-        <v>0.01948845883877707</v>
+        <v>0.02725306609819269</v>
       </c>
       <c r="P23">
-        <v>0.02338764916283215</v>
+        <v>0.03188729809316786</v>
       </c>
       <c r="Q23">
-        <v>0.2746988062331111</v>
+        <v>0.6628228923528888</v>
       </c>
       <c r="R23">
-        <v>2.472289256098</v>
+        <v>5.965406031175999</v>
       </c>
       <c r="S23">
-        <v>0.0008626976278088106</v>
+        <v>0.002503187395101716</v>
       </c>
       <c r="T23">
-        <v>0.001105033689623454</v>
+        <v>0.003106178725733574</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.3676123333333334</v>
+        <v>0.8870146666666666</v>
       </c>
       <c r="H24">
-        <v>1.102837</v>
+        <v>2.661044</v>
       </c>
       <c r="I24">
-        <v>0.04426710367123859</v>
+        <v>0.09184975320144682</v>
       </c>
       <c r="J24">
-        <v>0.04724860040142825</v>
+        <v>0.097411160916111</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.5008306666666666</v>
+        <v>1.182591666666666</v>
       </c>
       <c r="N24">
-        <v>1.502492</v>
+        <v>3.547775</v>
       </c>
       <c r="O24">
-        <v>0.01306176034372721</v>
+        <v>0.04313039993528083</v>
       </c>
       <c r="P24">
-        <v>0.01567511679067463</v>
+        <v>0.05046448405689858</v>
       </c>
       <c r="Q24">
-        <v>0.1841115299782222</v>
+        <v>1.048976153011111</v>
       </c>
       <c r="R24">
-        <v>1.657003769804</v>
+        <v>9.440785377099999</v>
       </c>
       <c r="S24">
-        <v>0.0005782062992646452</v>
+        <v>0.003961516589535243</v>
       </c>
       <c r="T24">
-        <v>0.0007406273294883039</v>
+        <v>0.004915803977015066</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.3676123333333334</v>
+        <v>0.8870146666666666</v>
       </c>
       <c r="H25">
-        <v>1.102837</v>
+        <v>2.661044</v>
       </c>
       <c r="I25">
-        <v>0.04426710367123859</v>
+        <v>0.09184975320144682</v>
       </c>
       <c r="J25">
-        <v>0.04724860040142825</v>
+        <v>0.097411160916111</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>19.1777795</v>
+        <v>11.9545335</v>
       </c>
       <c r="N25">
-        <v>38.355559</v>
+        <v>23.909067</v>
       </c>
       <c r="O25">
-        <v>0.5001601867174891</v>
+        <v>0.4359947946767024</v>
       </c>
       <c r="P25">
-        <v>0.4001537891027781</v>
+        <v>0.3400888529957002</v>
       </c>
       <c r="Q25">
-        <v>7.049988270147168</v>
+        <v>10.603846547658</v>
       </c>
       <c r="R25">
-        <v>42.299929620883</v>
+        <v>63.623079285948</v>
       </c>
       <c r="S25">
-        <v>0.02214064283764914</v>
+        <v>0.0400460142881706</v>
       </c>
       <c r="T25">
-        <v>0.01890670648043456</v>
+        <v>0.03312844998493977</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.3676123333333334</v>
+        <v>0.8870146666666666</v>
       </c>
       <c r="H26">
-        <v>1.102837</v>
+        <v>2.661044</v>
       </c>
       <c r="I26">
-        <v>0.04426710367123859</v>
+        <v>0.09184975320144682</v>
       </c>
       <c r="J26">
-        <v>0.04724860040142825</v>
+        <v>0.097411160916111</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.312462666666667</v>
+        <v>0.5368526666666666</v>
       </c>
       <c r="N26">
-        <v>3.937388</v>
+        <v>1.610558</v>
       </c>
       <c r="O26">
-        <v>0.034229279381366</v>
+        <v>0.01957959866647858</v>
       </c>
       <c r="P26">
-        <v>0.04107776730272161</v>
+        <v>0.022909000292778</v>
       </c>
       <c r="Q26">
-        <v>0.4824774633062222</v>
+        <v>0.4761961891724444</v>
       </c>
       <c r="R26">
-        <v>4.342297169756</v>
+        <v>4.285765702552</v>
       </c>
       <c r="S26">
-        <v>0.001515231058966719</v>
+        <v>0.001798381305299435</v>
       </c>
       <c r="T26">
-        <v>0.001940867012669148</v>
+        <v>0.002231592313947032</v>
       </c>
     </row>
   </sheetData>
